--- a/va_facility_data_2025-02-20/Espanola VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Espanola%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Espanola VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Espanola%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R020c0f7f063c46bbb1d10cdc35ff4d0a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rddcc19b489f84f938c524fa3e926375a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd73f165386414f50944aec8e9a2f0800"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R536cc8fa64994b68a92f5195d52d7cff"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R99c304b68ef746dbb5888a376a00710a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9321add15204405b8ceb4304314e6b4a"/>
   </x:sheets>
 </x:workbook>
 </file>
